--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H2">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I2">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J2">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.2019412231396366</v>
+        <v>0.276650797896</v>
       </c>
       <c r="R2">
-        <v>0.2019412231396366</v>
+        <v>1.106603191584</v>
       </c>
       <c r="S2">
-        <v>6.558452646675372E-06</v>
+        <v>8.235708881455819E-06</v>
       </c>
       <c r="T2">
-        <v>6.558452646675372E-06</v>
+        <v>3.682493347895938E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H3">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I3">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J3">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>29.4838129369682</v>
+        <v>0.024787535256</v>
       </c>
       <c r="R3">
-        <v>29.4838129369682</v>
+        <v>0.148725211536</v>
       </c>
       <c r="S3">
-        <v>0.0009575468940129776</v>
+        <v>7.379083155002535E-07</v>
       </c>
       <c r="T3">
-        <v>0.0009575468940129776</v>
+        <v>4.94919593862533E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H4">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I4">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J4">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>48.30799774249961</v>
+        <v>43.06869086810399</v>
       </c>
       <c r="R4">
-        <v>48.30799774249961</v>
+        <v>258.4121452086239</v>
       </c>
       <c r="S4">
-        <v>0.001568900647050198</v>
+        <v>0.001282126068649404</v>
       </c>
       <c r="T4">
-        <v>0.001568900647050198</v>
+        <v>0.0008599297498719012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H5">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I5">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J5">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>0.3914795445530551</v>
+        <v>61.79435225013601</v>
       </c>
       <c r="R5">
-        <v>0.3914795445530551</v>
+        <v>370.766113500816</v>
       </c>
       <c r="S5">
-        <v>1.271409579072372E-05</v>
+        <v>0.001839576460724941</v>
       </c>
       <c r="T5">
-        <v>1.271409579072372E-05</v>
+        <v>0.001233815117266761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H6">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I6">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J6">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>0.9417832962424051</v>
+        <v>0.535210087104</v>
       </c>
       <c r="R6">
-        <v>0.9417832962424051</v>
+        <v>3.211260522624</v>
       </c>
       <c r="S6">
-        <v>3.058633128890521E-05</v>
+        <v>1.593284567161874E-05</v>
       </c>
       <c r="T6">
-        <v>3.058633128890521E-05</v>
+        <v>1.068625646741239E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.838470341916874</v>
+        <v>0.871992</v>
       </c>
       <c r="H7">
-        <v>0.838470341916874</v>
+        <v>1.743984</v>
       </c>
       <c r="I7">
-        <v>0.003148676192157452</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J7">
-        <v>0.003148676192157452</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>0.246805859886838</v>
+        <v>1.208533388436</v>
       </c>
       <c r="R7">
-        <v>0.246805859886838</v>
+        <v>4.834133553744</v>
       </c>
       <c r="S7">
-        <v>8.015523130067223E-06</v>
+        <v>3.597722918702693E-05</v>
       </c>
       <c r="T7">
-        <v>8.015523130067223E-06</v>
+        <v>1.608676424384914E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H8">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I8">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J8">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>36.03413751544641</v>
+        <v>0.3052053139306667</v>
       </c>
       <c r="R8">
-        <v>36.03413751544641</v>
+        <v>1.831231883584</v>
       </c>
       <c r="S8">
-        <v>0.001170282030011424</v>
+        <v>9.085757690643717E-06</v>
       </c>
       <c r="T8">
-        <v>0.001170282030011424</v>
+        <v>6.093872926663381E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H9">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I9">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J9">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>59.04043135365599</v>
+        <v>0.02734598105955555</v>
       </c>
       <c r="R9">
-        <v>59.04043135365599</v>
+        <v>0.246113829536</v>
       </c>
       <c r="S9">
-        <v>0.001917458294310188</v>
+        <v>8.140715327666168E-07</v>
       </c>
       <c r="T9">
-        <v>0.001917458294310188</v>
+        <v>8.19004090160098E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H10">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I10">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J10">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>0.4784533049733726</v>
+        <v>47.5140264078471</v>
       </c>
       <c r="R10">
-        <v>0.4784533049733726</v>
+        <v>427.6262376706239</v>
       </c>
       <c r="S10">
-        <v>1.553874585647833E-05</v>
+        <v>0.001414460729037682</v>
       </c>
       <c r="T10">
-        <v>1.553874585647833E-05</v>
+        <v>0.001423031116830377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H11">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I11">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J11">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>1.151016284057284</v>
+        <v>68.172457195424</v>
       </c>
       <c r="R11">
-        <v>1.151016284057284</v>
+        <v>613.5521147588161</v>
       </c>
       <c r="S11">
-        <v>3.738159884929541E-05</v>
+        <v>0.002029448371249892</v>
       </c>
       <c r="T11">
-        <v>3.738159884929541E-05</v>
+        <v>0.002041745043182733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.404803631245</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H12">
-        <v>139.404803631245</v>
+        <v>2.885984</v>
       </c>
       <c r="I12">
-        <v>0.523501624711733</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J12">
-        <v>0.523501624711733</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>41.03415554795642</v>
+        <v>0.5904518038471112</v>
       </c>
       <c r="R12">
-        <v>41.03415554795642</v>
+        <v>5.314066234624001</v>
       </c>
       <c r="S12">
-        <v>0.001332667802410479</v>
+        <v>1.757735456394132E-05</v>
       </c>
       <c r="T12">
-        <v>0.001332667802410479</v>
+        <v>1.768385787074232E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.404803631245</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H13">
-        <v>139.404803631245</v>
+        <v>2.885984</v>
       </c>
       <c r="I13">
-        <v>0.523501624711733</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J13">
-        <v>0.523501624711733</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>5991.066843077556</v>
+        <v>1.333272179290667</v>
       </c>
       <c r="R13">
-        <v>5991.066843077556</v>
+        <v>7.999633075744001</v>
       </c>
       <c r="S13">
-        <v>0.1945721016368296</v>
+        <v>3.96906194086233E-05</v>
       </c>
       <c r="T13">
-        <v>0.1945721016368296</v>
+        <v>2.662073976568633E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H14">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I14">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J14">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>9816.113138055856</v>
+        <v>45.42349920040167</v>
       </c>
       <c r="R14">
-        <v>9816.113138055856</v>
+        <v>272.54099520241</v>
       </c>
       <c r="S14">
-        <v>0.3187982730293329</v>
+        <v>0.00135222713484521</v>
       </c>
       <c r="T14">
-        <v>0.3187982730293329</v>
+        <v>0.0009069469612004368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H15">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I15">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J15">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>79.54805995170869</v>
+        <v>4.069883753973889</v>
       </c>
       <c r="R15">
-        <v>79.54805995170869</v>
+        <v>36.628953785765</v>
       </c>
       <c r="S15">
-        <v>0.002583485314275956</v>
+        <v>0.000121157712300168</v>
       </c>
       <c r="T15">
-        <v>0.002583485314275956</v>
+        <v>0.0001218918214607629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H16">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I16">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J16">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>191.3689620655405</v>
+        <v>7071.480220147792</v>
       </c>
       <c r="R16">
-        <v>191.3689620655405</v>
+        <v>63643.32198133013</v>
       </c>
       <c r="S16">
-        <v>0.006215096928884142</v>
+        <v>0.2105132278563089</v>
       </c>
       <c r="T16">
-        <v>0.006215096928884142</v>
+        <v>0.2117887528399174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>125.363645999869</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H17">
-        <v>125.363645999869</v>
+        <v>429.519035</v>
       </c>
       <c r="I17">
-        <v>0.47077339267532</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J17">
-        <v>0.47077339267532</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>36.90110538532831</v>
+        <v>10146.06041757589</v>
       </c>
       <c r="R17">
-        <v>36.90110538532831</v>
+        <v>91314.54375818298</v>
       </c>
       <c r="S17">
-        <v>0.001198438577903964</v>
+        <v>0.3020414201885995</v>
       </c>
       <c r="T17">
-        <v>0.001198438577903964</v>
+        <v>0.3038715255052977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>125.363645999869</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H18">
-        <v>125.363645999869</v>
+        <v>429.519035</v>
       </c>
       <c r="I18">
-        <v>0.47077339267532</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J18">
-        <v>0.47077339267532</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>5387.633448154658</v>
+        <v>87.87654020341778</v>
       </c>
       <c r="R18">
-        <v>5387.633448154658</v>
+        <v>790.8888618307601</v>
       </c>
       <c r="S18">
-        <v>0.1749743727308903</v>
+        <v>0.002616025719531681</v>
       </c>
       <c r="T18">
-        <v>0.1749743727308903</v>
+        <v>0.002631876534214464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>125.363645999869</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H19">
-        <v>125.363645999869</v>
+        <v>429.519035</v>
       </c>
       <c r="I19">
-        <v>0.47077339267532</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J19">
-        <v>0.47077339267532</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>8827.412689372242</v>
+        <v>198.4299912408642</v>
       </c>
       <c r="R19">
-        <v>8827.412689372242</v>
+        <v>1190.579947445185</v>
       </c>
       <c r="S19">
-        <v>0.2866882116281774</v>
+        <v>0.005907127879760992</v>
       </c>
       <c r="T19">
-        <v>0.2866882116281774</v>
+        <v>0.003961946585685755</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H20">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I20">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J20">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>71.53580485032317</v>
+        <v>40.606215668453</v>
       </c>
       <c r="R20">
-        <v>71.53580485032317</v>
+        <v>243.637294010718</v>
       </c>
       <c r="S20">
-        <v>0.002323271006080028</v>
+        <v>0.001208819831955468</v>
       </c>
       <c r="T20">
-        <v>0.002323271006080028</v>
+        <v>0.0008107628112020782</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>127.989131</v>
+      </c>
+      <c r="H21">
+        <v>383.967393</v>
+      </c>
+      <c r="I21">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J21">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P21">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q21">
+        <v>3.638261700849666</v>
+      </c>
+      <c r="R21">
+        <v>32.744355307647</v>
+      </c>
+      <c r="S21">
+        <v>0.0001083086129902009</v>
+      </c>
+      <c r="T21">
+        <v>0.0001089648679116412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>127.989131</v>
+      </c>
+      <c r="H22">
+        <v>383.967393</v>
+      </c>
+      <c r="I22">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J22">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N22">
+        <v>148.173461</v>
+      </c>
+      <c r="O22">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P22">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q22">
+        <v>6321.53083688413</v>
+      </c>
+      <c r="R22">
+        <v>56893.77753195717</v>
+      </c>
+      <c r="S22">
+        <v>0.1881877372256666</v>
+      </c>
+      <c r="T22">
+        <v>0.1893279893745906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>127.989131</v>
+      </c>
+      <c r="H23">
+        <v>383.967393</v>
+      </c>
+      <c r="I23">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J23">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N23">
+        <v>212.597199</v>
+      </c>
+      <c r="O23">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P23">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q23">
+        <v>9070.043584348025</v>
+      </c>
+      <c r="R23">
+        <v>81630.39225913222</v>
+      </c>
+      <c r="S23">
+        <v>0.2700091200564234</v>
+      </c>
+      <c r="T23">
+        <v>0.2716451378114177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>127.989131</v>
+      </c>
+      <c r="H24">
+        <v>383.967393</v>
+      </c>
+      <c r="I24">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J24">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.841336</v>
+      </c>
+      <c r="O24">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P24">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q24">
+        <v>78.55699817300534</v>
+      </c>
+      <c r="R24">
+        <v>707.0129835570481</v>
+      </c>
+      <c r="S24">
+        <v>0.002338589197914194</v>
+      </c>
+      <c r="T24">
+        <v>0.00235275899132201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>125.363645999869</v>
-      </c>
-      <c r="H21">
-        <v>125.363645999869</v>
-      </c>
-      <c r="I21">
-        <v>0.47077339267532</v>
-      </c>
-      <c r="J21">
-        <v>0.47077339267532</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="N21">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="O21">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="P21">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="Q21">
-        <v>172.0938604038872</v>
-      </c>
-      <c r="R21">
-        <v>172.0938604038872</v>
-      </c>
-      <c r="S21">
-        <v>0.005589098732268314</v>
-      </c>
-      <c r="T21">
-        <v>0.005589098732268314</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>127.989131</v>
+      </c>
+      <c r="H25">
+        <v>383.967393</v>
+      </c>
+      <c r="I25">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J25">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.3859455</v>
+      </c>
+      <c r="N25">
+        <v>2.771891</v>
+      </c>
+      <c r="O25">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P25">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q25">
+        <v>177.3859601583605</v>
+      </c>
+      <c r="R25">
+        <v>1064.315760950163</v>
+      </c>
+      <c r="S25">
+        <v>0.005280661175143136</v>
+      </c>
+      <c r="T25">
+        <v>0.003541771557833311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H26">
+        <v>2.144779</v>
+      </c>
+      <c r="I26">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J26">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>0.2268196732923333</v>
+      </c>
+      <c r="R26">
+        <v>1.360918039754</v>
+      </c>
+      <c r="S26">
+        <v>6.752269691717327E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.52878833762632E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H27">
+        <v>2.144779</v>
+      </c>
+      <c r="I27">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J27">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.0203227342601111</v>
+      </c>
+      <c r="R27">
+        <v>0.182904608341</v>
+      </c>
+      <c r="S27">
+        <v>6.049941815254871E-07</v>
+      </c>
+      <c r="T27">
+        <v>6.086599140845842E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H28">
+        <v>2.144779</v>
+      </c>
+      <c r="I28">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J28">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>35.31103639001321</v>
+      </c>
+      <c r="R28">
+        <v>317.7993275101189</v>
+      </c>
+      <c r="S28">
+        <v>0.001051185892910256</v>
+      </c>
+      <c r="T28">
+        <v>0.001057555154749416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H29">
+        <v>2.144779</v>
+      </c>
+      <c r="I29">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J29">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>50.663778652669</v>
+      </c>
+      <c r="R29">
+        <v>455.974007874021</v>
+      </c>
+      <c r="S29">
+        <v>0.001508226742851301</v>
+      </c>
+      <c r="T29">
+        <v>0.001517365270206771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H30">
+        <v>2.144779</v>
+      </c>
+      <c r="I30">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J30">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>0.4388065316382222</v>
+      </c>
+      <c r="R30">
+        <v>3.949258784744</v>
+      </c>
+      <c r="S30">
+        <v>1.306297642131608E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.314212656762922E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H31">
+        <v>2.144779</v>
+      </c>
+      <c r="I31">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J31">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>0.9908489345148332</v>
+      </c>
+      <c r="R31">
+        <v>5.945093607088999</v>
+      </c>
+      <c r="S31">
+        <v>2.949690885486809E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.978375611711948E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.2774365</v>
+      </c>
+      <c r="H32">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J32">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>0.0880203362995</v>
+      </c>
+      <c r="R32">
+        <v>0.352081345198</v>
+      </c>
+      <c r="S32">
+        <v>2.620306432960414E-06</v>
+      </c>
+      <c r="T32">
+        <v>1.171636971111583E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.2774365</v>
+      </c>
+      <c r="H33">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J33">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.007886502427833331</v>
+      </c>
+      <c r="R33">
+        <v>0.047319014567</v>
+      </c>
+      <c r="S33">
+        <v>2.347758928674644E-07</v>
+      </c>
+      <c r="T33">
+        <v>1.574656188389832E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.2774365</v>
+      </c>
+      <c r="H34">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J34">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>13.70290880424216</v>
+      </c>
+      <c r="R34">
+        <v>82.21745282545298</v>
+      </c>
+      <c r="S34">
+        <v>0.0004079264133671527</v>
+      </c>
+      <c r="T34">
+        <v>0.0002735987257341073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.2774365</v>
+      </c>
+      <c r="H35">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J35">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>19.6607409334545</v>
+      </c>
+      <c r="R35">
+        <v>117.964445600727</v>
+      </c>
+      <c r="S35">
+        <v>0.0005852870837644324</v>
+      </c>
+      <c r="T35">
+        <v>0.0003925556057642497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.2774365</v>
+      </c>
+      <c r="H36">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J36">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>0.1702846050546667</v>
+      </c>
+      <c r="R36">
+        <v>1.021707630328</v>
+      </c>
+      <c r="S36">
+        <v>5.069258592021547E-06</v>
+      </c>
+      <c r="T36">
+        <v>3.39998255995612E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.2774365</v>
+      </c>
+      <c r="H37">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J37">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>0.38451186871075</v>
+      </c>
+      <c r="R37">
+        <v>1.538047474843</v>
+      </c>
+      <c r="S37">
+        <v>1.144666068650469E-05</v>
+      </c>
+      <c r="T37">
+        <v>5.118229947222738E-06</v>
       </c>
     </row>
   </sheetData>
